--- a/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD6A88-4B91-4548-9E71-EEC1E9756026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6862B-37BB-41D2-9771-078C0B3E33BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,109 +17,80 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>puzzle_name</t>
+  </si>
+  <si>
+    <t>is_start</t>
+  </si>
+  <si>
+    <t>next_id</t>
+  </si>
+  <si>
+    <t>init_item_list</t>
+  </si>
+  <si>
+    <t>suc_item</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>(array#sep=,),(string)</t>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(array#sep=,),(string)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键，即关卡Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>puzzle_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所属谜题名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>谜题1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否是初始关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下一关卡Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_item_list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡初始道具列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡正确道具id</t>
   </si>
   <si>
     <t>item1,item2,item3,item4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>suc_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡正确道具id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3</t>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3</t>
+  </si>
+  <si>
+    <t>____，启——动——！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -494,93 +465,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.21875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -588,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -597,36 +568,37 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6862B-37BB-41D2-9771-078C0B3E33BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F2166-64F2-4FA8-A0AC-176989635046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -57,40 +57,66 @@
     <t>bool</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>主键，即关卡Id</t>
+  </si>
+  <si>
+    <t>所属谜题名</t>
+  </si>
+  <si>
+    <t>是否是初始关卡</t>
+  </si>
+  <si>
+    <t>下一关卡Id</t>
+  </si>
+  <si>
+    <t>关卡初始道具列表</t>
+  </si>
+  <si>
+    <t>关卡正确道具id</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>____，启——动——！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_shoutao,1_1_falao,1_1_damedane,1_1_tongsheng,1_1_geiwowan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>(array#sep=,),(string)</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>主键，即关卡Id</t>
-  </si>
-  <si>
-    <t>所属谜题名</t>
-  </si>
-  <si>
-    <t>是否是初始关卡</t>
-  </si>
-  <si>
-    <t>下一关卡Id</t>
-  </si>
-  <si>
-    <t>关卡初始道具列表</t>
-  </si>
-  <si>
-    <t>关卡正确道具id</t>
-  </si>
-  <si>
-    <t>item1,item2,item3,item4</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_shoutao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>____，启——动——！</t>
+  </si>
+  <si>
+    <t>1_2_shouji,122,123,124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_zhifubao,1_3_weixin,133</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_zhifubao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_shouji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4_jiuchan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +185,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +500,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -481,7 +510,7 @@
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="49.21875" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -533,25 +562,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,43 +588,91 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Puzzle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GJ\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F2166-64F2-4FA8-A0AC-176989635046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99840148-AF11-4C8C-8F38-C1A5DD416935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Puzzle" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +68,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>(array#sep=,),(string)</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -78,46 +92,34 @@
     <t>关卡正确道具id</t>
   </si>
   <si>
+    <t>____，启——动——！</t>
+  </si>
+  <si>
+    <t>1_1_shoutao</t>
+  </si>
+  <si>
+    <t>1_2_shouji</t>
+  </si>
+  <si>
+    <t>1_3_zhifubao</t>
+  </si>
+  <si>
+    <t>1_4_jiuchan</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
-    <t>____，启——动——！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_shoutao,1_1_falao,1_1_damedane,1_1_tongsheng,1_1_geiwowan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(array#sep=,),(string)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_shoutao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>____，启——动——！</t>
-  </si>
-  <si>
-    <t>1_2_shouji,122,123,124</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3_zhifubao,1_3_weixin,133</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3_zhifubao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_shouji</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_4_jiuchan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1_1_shoutao,1_1_falao,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_shouji,1_2_bangqiugun,1_2_leishen,1_2_link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_zhifubao,1_3_weixin,133,1_3_bilibili</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,6 +137,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,13 +150,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -184,10 +185,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,21 +498,21 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="63.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,7 +531,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -553,8 +554,8 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -562,32 +563,32 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="b">
@@ -597,87 +598,87 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -689,9 +690,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -703,9 +704,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
